--- a/xlsx/控制论_intext.xlsx
+++ b/xlsx/控制论_intext.xlsx
@@ -29,7 +29,7 @@
     <t>控制论：或关于在动物和机器中控制和通信的科学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_控制论</t>
+    <t>政策_政策_政治学_控制论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%AD%A6%E7%A7%91%E7%A0%94%E7%A9%B6</t>
